--- a/ml/data_test/data_actual.xlsx
+++ b/ml/data_test/data_actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRIO\Dicoding\Coding Camp 2025\Capstone\capstone_spk_pip\ml\data_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61C7065-46B5-4221-AB4B-9F840F554AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7CB134-EBCD-46C2-87DD-B6A40A36C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>Alat Transportasi</t>
   </si>
@@ -86,6 +86,36 @@
   </si>
   <si>
     <t>Buruh</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>AHMAD ARIYADI</t>
+  </si>
+  <si>
+    <t>Ahmad Budianto</t>
+  </si>
+  <si>
+    <t>AIDIL</t>
+  </si>
+  <si>
+    <t>AIDIL ANGGARA</t>
+  </si>
+  <si>
+    <t>AIRIN</t>
+  </si>
+  <si>
+    <t>AJAI SAPUTRA</t>
+  </si>
+  <si>
+    <t>AKIS</t>
+  </si>
+  <si>
+    <t>AKROM NURHIDAYAT</t>
+  </si>
+  <si>
+    <t>AL AKBAR</t>
   </si>
 </sst>
 </file>
@@ -449,273 +479,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>4213001</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>3249958</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>4166323</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>3261966</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>3254943</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>4691725</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>2528375</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>1016130</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>3911749</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>4647122</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/ml/data_test/data_actual.xlsx
+++ b/ml/data_test/data_actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRIO\Dicoding\Coding Camp 2025\Capstone\capstone_spk_pip\ml\data_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7CB134-EBCD-46C2-87DD-B6A40A36C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9743510-C67C-4D28-BE16-7B86EF2CE6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,6 +487,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
